--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>CLVR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,67 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -730,8 +733,8 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -742,13 +745,16 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>4700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -771,13 +777,16 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>7400</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>1900</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,16 +1042,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>600</v>
+      <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>600</v>
@@ -1027,20 +1060,23 @@
       <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,66 +1104,75 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>400</v>
       </c>
       <c r="G23" s="3">
         <v>400</v>
       </c>
       <c r="H23" s="3">
+        <v>400</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1138,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1147,16 +1192,19 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,54 +1232,60 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>300</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
       <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1239,11 +1293,14 @@
       <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,16 +1424,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-600</v>
+      <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F32" s="3">
         <v>-600</v>
@@ -1375,37 +1444,40 @@
       <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -1413,11 +1485,14 @@
       <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,25 +1520,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -1471,45 +1549,51 @@
       <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>700</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
       </c>
       <c r="J41" s="3">
+        <v>700</v>
+      </c>
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,71 +1681,80 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>10200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -1676,127 +1774,142 @@
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>700</v>
       </c>
       <c r="H46" s="3">
         <v>700</v>
       </c>
       <c r="I46" s="3">
+        <v>700</v>
+      </c>
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
         <v>132500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>132400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>133000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>132400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>132300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>131600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>130800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>25700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>42800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,16 +1969,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E54" s="3">
         <v>132700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>132900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>133500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>133100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>133000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>132400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>131800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,25 +2095,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -1992,11 +2122,14 @@
       <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,13 +2157,16 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2042,53 +2178,59 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>33800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2111,13 +2253,16 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2134,14 +2279,17 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
       </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E76" s="3">
         <v>132300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>132600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>133200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>132800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>132500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>132100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>131600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,59 +2747,65 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -2619,11 +2813,14 @@
       <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,20 +3338,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>92200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3125,8 +3370,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,19 +3402,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
@@ -3175,12 +3426,15 @@
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>CLVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,90 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F8" s="3">
         <v>12100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -748,20 +756,26 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
         <v>4700</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,20 +794,26 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F10" s="3">
         <v>7400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,20 +924,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -916,26 +956,32 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,14 +994,20 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F17" s="3">
         <v>42100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-30000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,48 +1109,56 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5000</v>
       </c>
       <c r="F20" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-12000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1107,20 +1181,26 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1133,51 +1213,63 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-36500</v>
+        <v>-8900</v>
       </c>
       <c r="E23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1186,25 +1278,31 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-36500</v>
+        <v>-8900</v>
       </c>
       <c r="E26" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1100</v>
       </c>
       <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>500</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46200</v>
+        <v>-9000</v>
       </c>
       <c r="E27" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5000</v>
       </c>
       <c r="F32" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46200</v>
+        <v>-9000</v>
       </c>
       <c r="E33" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46200</v>
+        <v>-9000</v>
       </c>
       <c r="E35" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>68700</v>
+      </c>
+      <c r="F41" s="3">
         <v>79100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,20 +1864,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,26 +1896,32 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F44" s="3">
         <v>10200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,25 +1934,31 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F45" s="3">
         <v>3500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -1777,87 +1975,105 @@
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>87400</v>
+      </c>
+      <c r="F46" s="3">
         <v>95800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F47" s="3">
         <v>1600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>132500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>132400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>133000</v>
       </c>
       <c r="H47" s="3">
         <v>132400</v>
       </c>
       <c r="I47" s="3">
+        <v>133000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>132400</v>
+      </c>
+      <c r="K47" s="3">
         <v>132300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>131600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>130800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F48" s="3">
         <v>25700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,26 +2086,32 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>42400</v>
+      </c>
+      <c r="F49" s="3">
         <v>42800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1902,14 +2124,20 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1981,13 +2221,13 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>158700</v>
+      </c>
+      <c r="F54" s="3">
         <v>165900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>132700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>132900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>133500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>133100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>133000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>132400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>131800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,63 +2356,71 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>27100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2160,19 +2428,25 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5700</v>
+        <v>26200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>24800</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2181,63 +2455,75 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10200</v>
+        <v>56600</v>
       </c>
       <c r="E60" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>29200</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F61" s="3">
         <v>33800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2256,20 +2542,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F62" s="3">
         <v>7600</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
@@ -2282,14 +2574,20 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51600</v>
+        <v>71000</v>
       </c>
       <c r="E66" s="3">
+        <v>74200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>70600</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-79800</v>
+        <v>-91700</v>
       </c>
       <c r="E72" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="G72" s="3">
         <v>1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>114300</v>
+        <v>78800</v>
       </c>
       <c r="E76" s="3">
+        <v>84400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>95300</v>
+      </c>
+      <c r="G76" s="3">
         <v>132300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>132600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>133200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>132800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>132500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>132100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>131600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46200</v>
+        <v>-9000</v>
       </c>
       <c r="E81" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,31 +3229,33 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-21300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-600</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3511,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-2200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,26 +3827,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F100" s="3">
         <v>92200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3373,8 +3865,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3382,22 +3880,22 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3405,36 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F102" s="3">
         <v>66700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>CLVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -762,23 +766,26 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4700</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,23 +807,26 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,23 +947,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -962,29 +982,32 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1000,14 +1023,17 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E17" s="3">
         <v>13300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,58 +1144,62 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8800</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3">
-        <v>600</v>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,23 +1224,26 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,60 +1259,66 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>400</v>
       </c>
       <c r="J23" s="3">
         <v>400</v>
       </c>
       <c r="K23" s="3">
+        <v>400</v>
+      </c>
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1284,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1293,16 +1339,19 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,72 +1388,78 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
       </c>
       <c r="K26" s="3">
+        <v>300</v>
+      </c>
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1412,11 +1467,14 @@
       <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,72 +1634,78 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8800</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-600</v>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1640,11 +1713,14 @@
       <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,34 +1757,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -1716,54 +1795,60 @@
       <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E41" s="3">
         <v>56600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>79100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>700</v>
       </c>
       <c r="L41" s="3">
         <v>700</v>
       </c>
       <c r="M41" s="3">
+        <v>700</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,23 +1960,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1902,29 +1995,32 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E44" s="3">
         <v>13100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,28 +2036,31 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -1981,49 +2080,55 @@
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E46" s="3">
         <v>77500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>87400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>95800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>700</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2034,49 +2139,52 @@
         <v>1500</v>
       </c>
       <c r="F47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G47" s="3">
         <v>1600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>132500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>132400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>133000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>132400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>132300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>131600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>130800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E48" s="3">
         <v>28700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2092,29 +2200,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E49" s="3">
         <v>42000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,14 +2241,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2227,10 +2347,10 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E54" s="3">
         <v>149800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>158700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>165900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>132700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>132900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>133500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>133100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>133000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>132400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>131800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,34 +2488,35 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2393,20 +2524,23 @@
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3">
         <v>27100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2422,8 +2556,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2434,23 +2568,26 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E59" s="3">
         <v>26200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24800</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -2461,72 +2598,78 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E60" s="3">
         <v>56600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E61" s="3">
         <v>6600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2548,23 +2691,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
         <v>7800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7600</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
@@ -2580,14 +2726,17 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E66" s="3">
         <v>71000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-82800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E76" s="3">
         <v>78800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>95300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>132300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>132600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>132800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>131600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,77 +3323,83 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -3212,11 +3407,14 @@
       <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,20 +3429,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3257,8 +3456,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,20 +3733,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3760,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,29 +4076,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>92200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3880,11 +4129,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3897,8 +4146,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3909,28 +4158,31 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>66700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
@@ -3939,12 +4191,15 @@
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>CLVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>12100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -769,29 +776,35 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4700</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,29 +823,35 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,16 +893,18 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1500</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,29 +983,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -985,35 +1024,41 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>300</v>
+      </c>
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,14 +1071,20 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F17" s="3">
         <v>10300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>42100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-9600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-30000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,67 +1210,75 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F20" s="3">
         <v>7800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>8800</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F21" s="3">
         <v>1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-7400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-12000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,29 +1300,35 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,69 +1341,81 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-25700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1333,25 +1424,31 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-13800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-25700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1100</v>
       </c>
       <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-13800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-35400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-8800</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-13800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-35400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-13800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-35400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>37200</v>
+      </c>
+      <c r="F41" s="3">
         <v>45800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>56600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>68700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>79100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,29 +2142,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1998,35 +2183,41 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F44" s="3">
         <v>14100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>13100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>11600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>10200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,34 +2230,40 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2083,57 +2280,69 @@
       <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F46" s="3">
         <v>68100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>77500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>87400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>95800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E47" s="3">
         <v>1500</v>
@@ -2142,55 +2351,61 @@
         <v>1500</v>
       </c>
       <c r="G47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I47" s="3">
         <v>1600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>132500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>132400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>133000</v>
       </c>
       <c r="K47" s="3">
         <v>132400</v>
       </c>
       <c r="L47" s="3">
+        <v>133000</v>
+      </c>
+      <c r="M47" s="3">
+        <v>132400</v>
+      </c>
+      <c r="N47" s="3">
         <v>132300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>131600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>130800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>30900</v>
+      </c>
+      <c r="F48" s="3">
         <v>29700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>28700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>27300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>25700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2203,35 +2418,41 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F49" s="3">
         <v>41800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>42000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>42400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>42800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2244,14 +2465,20 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,16 +2565,22 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2350,13 +2589,13 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>116200</v>
+      </c>
+      <c r="F54" s="3">
         <v>141100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>149800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>158700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>165900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>132700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>132900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>133500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>133100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>133000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>132400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>131800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,64 +2748,72 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>27100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2559,11 +2826,11 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2571,29 +2838,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F59" s="3">
         <v>16700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>26200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>27600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>24800</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -2601,81 +2874,93 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27200</v>
+      </c>
+      <c r="F60" s="3">
         <v>32600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>56600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>31000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>29200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F61" s="3">
         <v>13100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>35200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>33800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2694,29 +2979,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F62" s="3">
         <v>7700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>7600</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
@@ -2729,14 +3020,20 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F66" s="3">
         <v>53500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>71000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>74200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>70600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-130900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-90700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-91700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-82800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-69000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>72800</v>
+      </c>
+      <c r="F76" s="3">
         <v>87700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>78800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>84400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>95300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>132300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>132600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>133200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>132800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>132500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>132100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>131600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-13800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-35400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,26 +3825,28 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3459,11 +3856,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-21300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-600</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,26 +4173,28 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3763,11 +4204,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,35 +4564,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>92200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4120,8 +4611,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4132,14 +4629,14 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4149,11 +4646,11 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-12100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-10300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>66700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>CLVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>5200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -782,32 +786,35 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
-        <v>1300</v>
-      </c>
       <c r="H9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -829,32 +836,35 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
-        <v>2400</v>
-      </c>
       <c r="H10" s="3">
+        <v>500</v>
+      </c>
+      <c r="I10" s="3">
         <v>2300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,16 +918,16 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>300</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,32 +1006,35 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F14" s="3">
         <v>18600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-3400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1030,14 +1050,17 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,23 +1068,23 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
       </c>
       <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,14 +1100,17 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>12900</v>
       </c>
       <c r="E17" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F17" s="3">
         <v>34500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-8200</v>
       </c>
       <c r="E18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-30300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,76 +1245,80 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>7800</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>11700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8800</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>600</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="M20" s="3">
+        <v>600</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>700</v>
       </c>
       <c r="E21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,32 +1343,35 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,78 +1387,84 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>400</v>
       </c>
       <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1430,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1439,16 +1485,19 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,90 +1543,96 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-23900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>300</v>
       </c>
       <c r="M26" s="3">
         <v>300</v>
       </c>
       <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-24000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-35400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1585,11 +1640,14 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,90 +1843,96 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-7800</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8800</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-600</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="M32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-24000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-35400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1867,11 +1940,14 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,43 +1993,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-24000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-35400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -1961,63 +2040,69 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E41" s="3">
         <v>44300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>68700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>79100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>700</v>
       </c>
       <c r="O41" s="3">
         <v>700</v>
       </c>
       <c r="P41" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,32 +2238,35 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E43" s="3">
         <v>5400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,38 +2282,41 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E44" s="3">
         <v>16200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,37 +2332,40 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2286,66 +2385,72 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E46" s="3">
         <v>69200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>60400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>68100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>77500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>87400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>95800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>700</v>
       </c>
       <c r="N46" s="3">
         <v>700</v>
       </c>
       <c r="O46" s="3">
+        <v>700</v>
+      </c>
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1500</v>
       </c>
       <c r="F47" s="3">
         <v>1500</v>
@@ -2357,58 +2462,61 @@
         <v>1500</v>
       </c>
       <c r="I47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>132500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>132400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>133000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>132400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>132300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>131600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>130800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30100</v>
+        <v>32700</v>
       </c>
       <c r="E48" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F48" s="3">
         <v>30900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,38 +2532,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E49" s="3">
         <v>22900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>41800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,14 +2582,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2595,10 +2715,10 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E54" s="3">
         <v>127200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>116200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>141100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>149800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>158700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>165900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>132700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>132900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>133500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>132400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>131800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,43 +2880,44 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -2794,29 +2925,32 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>16500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2832,8 +2966,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2844,32 +2978,35 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24800</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -2880,90 +3017,96 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
         <v>27500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
         <v>6100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>33800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2985,32 +3128,35 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8900</v>
+        <v>10600</v>
       </c>
       <c r="E62" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F62" s="3">
         <v>8600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7600</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -3026,14 +3172,17 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E66" s="3">
         <v>44800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>70600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
       </c>
       <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-131900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-130900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-114700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-90700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-82800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>84600</v>
       </c>
       <c r="E76" s="3">
+        <v>82400</v>
+      </c>
+      <c r="F76" s="3">
         <v>72800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>87700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>78800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>84400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>95300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>132300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>133200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>132800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>132500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>131600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,95 +3898,101 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-24000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-35400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -3805,11 +4000,14 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,29 +4025,30 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4061,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,29 +4395,30 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4210,8 +4431,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,38 +4813,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E100" s="3">
         <v>18700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>92200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4617,13 +4863,16 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4635,11 +4884,11 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4652,8 +4901,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4664,37 +4913,40 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E102" s="3">
         <v>7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>66700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
@@ -4703,12 +4955,15 @@
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>CLVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -789,35 +793,38 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,35 +846,38 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,29 +922,30 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
       </c>
       <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,26 +1038,26 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>6300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,14 +1073,17 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1071,23 +1094,23 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
       </c>
       <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,14 +1126,17 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>12900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,82 +1279,86 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>7800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>600</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="N20" s="3">
+        <v>600</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,35 +1383,38 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1390,64 +1430,70 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>400</v>
       </c>
       <c r="N23" s="3">
         <v>400</v>
       </c>
       <c r="O23" s="3">
+        <v>400</v>
+      </c>
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,17 +1503,17 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1479,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1488,16 +1534,19 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,96 +1595,102 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>300</v>
       </c>
       <c r="N26" s="3">
         <v>300</v>
       </c>
       <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-35400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1643,11 +1698,14 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,96 +1913,102 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-600</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="N32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-35400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -1943,11 +2016,14 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,46 +2072,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-35400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2043,66 +2122,72 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E41" s="3">
         <v>19000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>79100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>700</v>
       </c>
       <c r="P41" s="3">
         <v>700</v>
       </c>
       <c r="Q41" s="3">
+        <v>700</v>
+      </c>
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,35 +2331,38 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,14 +2378,17 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2300,26 +2396,26 @@
         <v>16700</v>
       </c>
       <c r="E44" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F44" s="3">
         <v>16200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,40 +2431,43 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2388,72 +2487,78 @@
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E46" s="3">
         <v>44300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>69200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>60400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>68100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>77500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>87400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>95800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>700</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E47" s="3">
         <v>5700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1500</v>
       </c>
       <c r="G47" s="3">
         <v>1500</v>
@@ -2465,61 +2570,64 @@
         <v>1500</v>
       </c>
       <c r="J47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>132500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>132400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>133000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>132400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>132300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>131600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>130800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E48" s="3">
         <v>32700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>33700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2535,41 +2643,44 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E49" s="3">
         <v>22700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,14 +2696,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,22 +2808,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2718,10 +2838,10 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E54" s="3">
         <v>105500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>127200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>116200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>141100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>149800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>158700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>165900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>132700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>132900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>133000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>132400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>131800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,46 +3011,47 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -2928,11 +3059,14 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,20 +3074,20 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>16500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3103,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2981,35 +3115,38 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24800</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3020,96 +3157,102 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
         <v>8600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3131,35 +3274,38 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
         <v>10600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7600</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
@@ -3175,14 +3321,17 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E66" s="3">
         <v>20900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>70600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-152100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-131900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-130900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-114700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-90700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-91700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-82800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>84600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>72800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>87700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>84400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>95300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>133200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>132800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>132100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>131600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,101 +4090,107 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-35400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4003,11 +4198,14 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,32 +4224,33 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4064,8 +4263,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-21300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,32 +4616,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4434,8 +4655,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,41 +5059,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>92200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4866,17 +5112,20 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4887,11 +5136,11 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4904,8 +5153,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4916,40 +5165,43 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>66700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
@@ -4958,12 +5210,15 @@
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>CLVR</t>
   </si>
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>18900</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
@@ -1158,8 +1158,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>29500</v>
       </c>
       <c r="E17" s="3">
         <v>12900</v>
@@ -1211,8 +1211,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-26200</v>
       </c>
       <c r="E18" s="3">
         <v>-8200</v>
@@ -1285,8 +1285,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
         <v>7800</v>
@@ -1338,8 +1338,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-25900</v>
       </c>
       <c r="E21" s="3">
         <v>700</v>
@@ -1391,8 +1391,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>100</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
@@ -1497,8 +1497,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>-6700</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1603,8 +1603,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-20200</v>
       </c>
       <c r="E26" s="3">
         <v>-1000</v>
@@ -1656,8 +1656,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-20200</v>
       </c>
       <c r="E27" s="3">
         <v>-1000</v>
@@ -1921,8 +1921,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>600</v>
       </c>
       <c r="E32" s="3">
         <v>-7800</v>
@@ -1974,8 +1974,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-20200</v>
       </c>
       <c r="E33" s="3">
         <v>-1000</v>
@@ -2080,8 +2080,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-20200</v>
       </c>
       <c r="E35" s="3">
         <v>-1000</v>
@@ -2340,7 +2340,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2600</v>
+        <v>4600</v>
       </c>
       <c r="E43" s="3">
         <v>5900</v>
@@ -2446,7 +2446,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4100</v>
+        <v>2100</v>
       </c>
       <c r="E45" s="3">
         <v>2600</v>
@@ -3992,8 +3992,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>69500</v>
       </c>
       <c r="E76" s="3">
         <v>84600</v>
@@ -4156,8 +4156,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-20200</v>
       </c>
       <c r="E81" s="3">
         <v>-1000</v>

--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>CLVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="F8" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>12100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -796,41 +803,47 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3200</v>
       </c>
-      <c r="G9" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,41 +862,47 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,35 +948,37 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,41 +1062,47 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F14" s="3">
         <v>18900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I14" s="3">
         <v>18600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-3400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1076,19 +1115,25 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -1097,26 +1142,26 @@
         <v>500</v>
       </c>
       <c r="G15" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
       </c>
       <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1129,14 +1174,20 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F17" s="3">
         <v>29500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12900</v>
       </c>
-      <c r="F17" s="3">
-        <v>19400</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I17" s="3">
         <v>34500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>10300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>42100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-30300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-30000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,91 +1345,99 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="F20" s="3">
-        <v>200</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>400</v>
+      </c>
+      <c r="I20" s="3">
         <v>11700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-25900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-16900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-7400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-12000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,41 +1459,47 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1433,93 +1512,105 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-26800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-25700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-6700</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1528,25 +1619,31 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-23900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-25700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1100</v>
       </c>
       <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>500</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-24000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-35400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,31 +1872,37 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-2300</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="F32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-11700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-16100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-24000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-35400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-16100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-24000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-35400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F41" s="3">
         <v>17200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>44300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>37200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>45800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>56600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>68700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>79100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,41 +2513,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,47 +2566,53 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F44" s="3">
         <v>16700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>16700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>16200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>15400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>14100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>13100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>10200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,46 +2625,52 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2490,81 +2687,93 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F46" s="3">
         <v>40500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>44300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>69200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>60400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>68100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>77500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>87400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>95800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="E47" s="3">
         <v>5700</v>
       </c>
       <c r="F47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H47" s="3">
         <v>1400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1500</v>
       </c>
       <c r="I47" s="3">
         <v>1500</v>
@@ -2573,67 +2782,73 @@
         <v>1500</v>
       </c>
       <c r="K47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M47" s="3">
         <v>1600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>132500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>132400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>133000</v>
       </c>
       <c r="O47" s="3">
         <v>132400</v>
       </c>
       <c r="P47" s="3">
+        <v>133000</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>132400</v>
+      </c>
+      <c r="R47" s="3">
         <v>132300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>131600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>130800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F48" s="3">
         <v>31900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>32700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>33700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>30900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>29700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>28700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>27300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>25700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2646,47 +2861,53 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F49" s="3">
         <v>3500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>22700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>22900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>23100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>41800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>42000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>42400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>42800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2699,14 +2920,20 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,28 +3044,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2841,13 +3080,13 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>52100</v>
+      </c>
+      <c r="F54" s="3">
         <v>81400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>105500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>127200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>116200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>141100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>149800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>158700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>165900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>132700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>132900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>133500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>133100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>133000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>132400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>131800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3077,23 +3344,23 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
         <v>16500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>17500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>13000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>27100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,11 +3373,11 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,41 +3385,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>16700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>26200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>27600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24800</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -3160,105 +3433,117 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F60" s="3">
         <v>8200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>27500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>27200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>32600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>56600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>31000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>29200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>13100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>35200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>33800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3277,41 +3562,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>11100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>7700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>7800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7600</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -3324,14 +3615,20 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F66" s="3">
         <v>11900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>20900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>44800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>43400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>53500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>71000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>74200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>70600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-180900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-152100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-131900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-130900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-114700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-90700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-91700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-82800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-69000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F76" s="3">
         <v>69500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>84600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>82400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>72800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>87700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>78800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>84400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>95300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>132300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>132600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>133200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>132800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>132500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>132100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>131600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-16100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-24000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-35400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,38 +4620,40 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4266,11 +4663,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-8900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-10600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-21300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-600</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,38 +5056,40 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4658,11 +5099,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,47 +5547,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
         <v>3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-19000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>18700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>92200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,23 +5606,29 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5139,14 +5636,14 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5156,11 +5653,11 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5168,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-25300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-10900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-12100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-10300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>66700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,144 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
-        <v>4700</v>
-      </c>
       <c r="H8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -809,44 +813,47 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
-        <v>3400</v>
-      </c>
       <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -868,44 +875,47 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>1300</v>
-      </c>
       <c r="H10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,38 +963,39 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
       </c>
       <c r="I12" s="3">
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,35 +1097,35 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>23200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18900</v>
       </c>
-      <c r="G14" s="3">
-        <v>-100</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>6100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,14 +1141,17 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1159,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
@@ -1154,17 +1177,17 @@
         <v>300</v>
       </c>
       <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1180,14 +1203,17 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E17" s="3">
         <v>8100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29500</v>
       </c>
-      <c r="G17" s="3">
-        <v>12900</v>
-      </c>
       <c r="H17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I17" s="3">
         <v>17000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-8200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,100 +1380,104 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
-        <v>600</v>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="Q20" s="3">
+        <v>600</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25900</v>
       </c>
-      <c r="G21" s="3">
-        <v>700</v>
-      </c>
       <c r="H21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1465,13 +1502,16 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1479,30 +1519,30 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>700</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,102 +1558,108 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>400</v>
       </c>
       <c r="Q23" s="3">
         <v>400</v>
       </c>
       <c r="R23" s="3">
+        <v>400</v>
+      </c>
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6700</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1625,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1634,16 +1680,19 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,114 +1750,120 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-13800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>300</v>
       </c>
       <c r="Q26" s="3">
         <v>300</v>
       </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-13800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-35400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1816,11 +1871,14 @@
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,17 +1936,20 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,16 +1957,16 @@
         <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2300</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,114 +2122,120 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-600</v>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="Q32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-35400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2170,11 +2243,14 @@
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,55 +2308,58 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-35400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2288,75 +2367,81 @@
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>6400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>45800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>68700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>79100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>700</v>
       </c>
       <c r="S41" s="3">
         <v>700</v>
       </c>
       <c r="T41" s="3">
+        <v>700</v>
+      </c>
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,44 +2609,47 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,50 +2665,53 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E44" s="3">
         <v>8000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>16700</v>
       </c>
       <c r="G44" s="3">
         <v>16700</v>
       </c>
       <c r="H44" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I44" s="3">
         <v>16200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2631,49 +2727,52 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2693,70 +2792,76 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E46" s="3">
         <v>21100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>69200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>60400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>68100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>77500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>87400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>95800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>700</v>
       </c>
       <c r="R46" s="3">
         <v>700</v>
       </c>
       <c r="S46" s="3">
+        <v>700</v>
+      </c>
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,19 +2869,19 @@
         <v>5800</v>
       </c>
       <c r="E47" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F47" s="3">
         <v>5700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1500</v>
       </c>
       <c r="J47" s="3">
         <v>1500</v>
@@ -2788,70 +2893,73 @@
         <v>1500</v>
       </c>
       <c r="M47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>132500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>132400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>133000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>132400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>132300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>131600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>130800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E48" s="3">
         <v>14600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>33700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2867,50 +2975,53 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>41800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,14 +3037,17 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,22 +3179,22 @@
         <v>1600</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3086,10 +3206,10 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E54" s="3">
         <v>46200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>52100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>81400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>127200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>116200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>141100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>158700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>165900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>132700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>132900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>133500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>133100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>133000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>132400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>131800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,55 +3403,56 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2300</v>
       </c>
       <c r="F57" s="3">
         <v>2300</v>
       </c>
       <c r="G57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3329,11 +3460,14 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3350,20 +3484,20 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
         <v>16500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3513,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,44 +3525,47 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24800</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -3439,114 +3576,120 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3568,44 +3711,47 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7600</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
@@ -3621,14 +3767,17 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
       <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-188600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-185000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-180900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-152100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-131900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-130900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-90700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-91700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-82800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E76" s="3">
         <v>36800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>84600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>87700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>95300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>132300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>133200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>132800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>132500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>132100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>131600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,119 +4665,125 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-35400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -4596,11 +4791,14 @@
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,32 +4830,32 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4669,8 +4868,8 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5067,32 +5288,32 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5105,8 +5326,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5244,58 +5474,61 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,50 +5796,53 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>92200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5621,17 +5870,17 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5642,11 +5891,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5659,8 +5908,8 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5671,49 +5920,52 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>66700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
@@ -5722,12 +5974,15 @@
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>CLVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,151 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
-        <v>3300</v>
-      </c>
       <c r="H8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -816,47 +820,50 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3000</v>
       </c>
       <c r="H9" s="3">
         <v>1600</v>
       </c>
       <c r="I9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -878,47 +885,50 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
-        <v>300</v>
-      </c>
       <c r="H10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,41 +977,42 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,47 +1105,50 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>23200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>6100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,25 +1164,28 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -1180,17 +1203,17 @@
         <v>300</v>
       </c>
       <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1900</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1206,14 +1229,17 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
         <v>8200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33400</v>
       </c>
-      <c r="G17" s="3">
-        <v>29500</v>
-      </c>
       <c r="H17" s="3">
+        <v>27200</v>
+      </c>
+      <c r="I17" s="3">
         <v>9400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-26200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,106 +1414,110 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
-        <v>600</v>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="R20" s="3">
+        <v>600</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H21" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="I21" s="3">
         <v>3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1505,16 +1542,19 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1522,30 +1562,30 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,108 +1601,114 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-26800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>400</v>
       </c>
       <c r="R23" s="3">
         <v>400</v>
       </c>
       <c r="S23" s="3">
+        <v>400</v>
+      </c>
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6700</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1674,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -1683,16 +1729,19 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,120 +1802,126 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-20200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>300</v>
       </c>
       <c r="R26" s="3">
         <v>300</v>
       </c>
       <c r="S26" s="3">
+        <v>300</v>
+      </c>
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-20200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-35400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -1874,11 +1929,14 @@
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,37 +1997,40 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-2300</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,120 +2192,126 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-600</v>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="R32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-35400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2246,11 +2319,14 @@
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,58 +2387,61 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-35400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2370,78 +2449,84 @@
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>68700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>700</v>
       </c>
       <c r="T41" s="3">
         <v>700</v>
       </c>
       <c r="U41" s="3">
+        <v>700</v>
+      </c>
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,47 +2702,50 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2668,53 +2761,56 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E44" s="3">
         <v>7500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>16700</v>
       </c>
       <c r="H44" s="3">
         <v>16700</v>
       </c>
       <c r="I44" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J44" s="3">
         <v>16200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,52 +2826,55 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2795,96 +2894,102 @@
       <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E46" s="3">
         <v>18400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>69200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>60400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>77500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>87400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>95800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>700</v>
       </c>
       <c r="S46" s="3">
         <v>700</v>
       </c>
       <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5800</v>
+        <v>1900</v>
       </c>
       <c r="E47" s="3">
         <v>5800</v>
       </c>
       <c r="F47" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G47" s="3">
         <v>5700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1500</v>
       </c>
       <c r="K47" s="3">
         <v>1500</v>
@@ -2896,73 +3001,76 @@
         <v>1500</v>
       </c>
       <c r="N47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O47" s="3">
         <v>1600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>132500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>132400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>133000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>132400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>132300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>131600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>130800</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
         <v>14100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>33700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,53 +3086,56 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>22900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>41800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3040,14 +3151,17 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3182,22 +3302,22 @@
         <v>1600</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3209,10 +3329,10 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E54" s="3">
         <v>42800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>52100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>81400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>105500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>127200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>116200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>141100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>158700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>165900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>132700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>132900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>133500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>133100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>133000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>132400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>131800</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,58 +3534,59 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2300</v>
       </c>
       <c r="G57" s="3">
         <v>2300</v>
       </c>
       <c r="H57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3463,11 +3594,14 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3487,20 +3621,20 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>16500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3516,8 +3650,8 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3528,47 +3662,50 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24800</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -3579,81 +3716,87 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,38 +3804,38 @@
         <v>900</v>
       </c>
       <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3723,38 +3869,38 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7600</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
@@ -3770,14 +3916,17 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
       </c>
       <c r="R66" s="3">
+        <v>300</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-193700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-188600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-185000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-180900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-152100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-131900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-130900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-90700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-82800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E76" s="3">
         <v>33900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>84600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>82400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>95300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>132600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>133200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>132800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>132500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>132100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>131600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,125 +4857,131 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-35400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -4794,11 +4989,14 @@
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,44 +5019,45 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4871,8 +5070,8 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,44 +5499,45 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5329,8 +5550,8 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,53 +6042,56 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>92200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5861,29 +6107,32 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5894,11 +6143,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5911,8 +6160,8 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5923,52 +6172,55 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-25300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>66700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
@@ -5977,12 +6229,15 @@
         <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
